--- a/plan+tests+acceptation.xlsx
+++ b/plan+tests+acceptation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\amama\Desktop\my projects\MahirAbubakar_P5_270621\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{199A73AB-5B4D-479E-8C69-C7E983DF1E32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD217F97-2EC5-4972-873E-0BC2ED282E72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="43200" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuille 1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="54">
   <si>
     <t>Résultat attendu</t>
   </si>
@@ -43,147 +43,147 @@
     <t>get</t>
   </si>
   <si>
-    <t>la fonction doit retourner un tableau vide ou un tableau de product</t>
-  </si>
-  <si>
-    <t>la fonction ne retourne pas un tableau vide ou un tableau de product</t>
-  </si>
-  <si>
-    <t>add</t>
-  </si>
-  <si>
-    <t>rien</t>
-  </si>
-  <si>
-    <t>Le produit a été ajouté dans le localstorage ou sa quantité a été mise à jour
-(vérification normalement à partir de données mockées, mais vu que c'est pas prévu de pouvoir les préciser ici, faudra improviser)</t>
-  </si>
-  <si>
-    <t>Le produit n'a pas été ajouté dans le localstorage ou sa quantité n'a été mise à jour</t>
-  </si>
-  <si>
-    <t>52-54</t>
-  </si>
-  <si>
-    <t>save</t>
-  </si>
-  <si>
-    <t>le panier est bien enregistré dans le localstorage
-(vérification normalement à partir de données mockées, mais vu que c'est pas prévu de pouvoir les préciser ici, faudra improviser)</t>
-  </si>
-  <si>
-    <t>le panier n'est bien enregistré dans le localstorage</t>
-  </si>
-  <si>
-    <t>60-72</t>
-  </si>
-  <si>
-    <t>getTotalPrice</t>
-  </si>
-  <si>
-    <t>le prix total</t>
-  </si>
-  <si>
-    <t>La quantité a bien été mise à jour dans le localstorage
-(vérification normalement à partir de données mockées, mais vu que c'est pas prévu de pouvoir les préciser ici, faudra improviser)</t>
-  </si>
-  <si>
-    <t>La quantité n'a  pas été mise à jour dans le localstorage</t>
-  </si>
-  <si>
-    <t>le prix total correspond bien au prix total du panier
-(vérification normalement à partir de données mockées, mais vu que c'est pas prévu de pouvoir les préciser ici, faudra improviser)</t>
-  </si>
-  <si>
-    <t>J'arrête là pour cette colonne, c'est une négation de la colonne précédente =&gt; inutile</t>
-  </si>
-  <si>
-    <t>90-96</t>
-  </si>
-  <si>
-    <t>getListProcutId</t>
-  </si>
-  <si>
-    <t>un tableau de chaine de caractère</t>
-  </si>
-  <si>
-    <t>Un tableau dont les id correspondent aux id des produits
-(vérification normalement à partir de données mockées, mais vu que c'est pas prévu de pouvoir les préciser ici, faudra improviser)</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>101-103</t>
-  </si>
-  <si>
-    <t>clear</t>
-  </si>
-  <si>
-    <t>le panier est supprimé du localstorage</t>
-  </si>
-  <si>
-    <t>lVérifier si le panier est bien supprimé du localstorage</t>
-  </si>
-  <si>
-    <t>js/utils/constants.js</t>
-  </si>
-  <si>
     <t>5-11</t>
   </si>
   <si>
-    <t>un tableau de product</t>
-  </si>
-  <si>
     <t>js/product.js</t>
   </si>
   <si>
-    <t>29-123</t>
-  </si>
-  <si>
-    <t>un seul product de product paraport au ID</t>
-  </si>
-  <si>
-    <t>la fonction doit retourner un tableau de products qui ont le meme ID</t>
-  </si>
-  <si>
     <t>js/cart/setUpcart.js</t>
   </si>
   <si>
-    <t>25-50</t>
-  </si>
-  <si>
-    <t>un  tableau de product paraport a leur ID et leur coleur ou un tableau vide</t>
-  </si>
-  <si>
-    <t>la fonction doit retourner un tableau de products qui ont le meme ID et meme coleur</t>
-  </si>
-  <si>
-    <t>54-65</t>
-  </si>
-  <si>
     <t>modifyQTY</t>
   </si>
   <si>
     <t>107-142</t>
   </si>
   <si>
-    <t>utilisateur peut modifier la quantité en respectant la limit entre 1 -100 product, sinon il vera une alerte ("Veuillez sélectionner une quantité correcte, SVP ");</t>
-  </si>
-  <si>
     <t>146-182</t>
   </si>
   <si>
     <t>suprimer</t>
   </si>
   <si>
-    <t xml:space="preserve">onlick sur suprimer l'element doit disparaitre de l'interface et de la localstorage </t>
-  </si>
-  <si>
-    <t>Le produit n'a pas été suprimer de le localstorage</t>
-  </si>
-  <si>
-    <t>Que le produit a bien été suprimer de le localstorage et si c'est le seul element dans localstorage  si le Ls est vide, on le clear et on affiche le message</t>
+    <t>renvoie un tableau de données de produits à partir de l'API.</t>
+  </si>
+  <si>
+    <t>S'il y a une erreur lors de la requête d'extraction, il consigne l'erreur dans la console et renvoie undefined.</t>
+  </si>
+  <si>
+    <t>nous pouvons appeler les fonctions dans notre code et inspecter les données renvoyées à l'aide d'instructions console.log() ou d'un débogueur. utilisez ensuite la sortie de console.log() ou du débogueur pour vérifier que les données renvoyées correspondent au résultat attendu.</t>
+  </si>
+  <si>
+    <t>utils/fetchProdcuct.js</t>
+  </si>
+  <si>
+    <t>la fonction renvoie le cartArray, qui contient un tableau d'objets représentant chaque article du panier.</t>
+  </si>
+  <si>
+    <t>S'il y a une erreur lors de la demande de récupération, il enregistre l'erreur dans la console et passe à l'article suivant dans le panier. appelez-le dans notre code et inspectez les données renvoyées à l'aide de console.log ()</t>
+  </si>
+  <si>
+    <t>Erreurs d'analyse : si les données de réponse de l'API ne sont pas au format attendu ou contiennent du JSON non valide, la fonction peut générer des erreurs d'analyse et ne pas récupérer les données produit.</t>
+  </si>
+  <si>
+    <t>25-49</t>
+  </si>
+  <si>
+    <t>70-84</t>
+  </si>
+  <si>
+    <t>calculer et afficher le prix total de tous les produits de le pannier</t>
+  </si>
+  <si>
+    <t>Remplacez la quantité de l'un des produits du tableau cartValue par une valeur inférieure ou égale à zéro ou supérieure à 100, et vérifiez que la fonction showPopup est appelée avec le message d'erreur attendu.</t>
+  </si>
+  <si>
+    <t>La variable totale n'est peut-être pas initialisée correctement. Si le tableau cartValue est vide ou ne contient aucun produit avec des quantités valides, la variable total peut ne pas être initialisée à zéro. Cela peut entraîner une valeur indéfinie ou NaN pour le total.</t>
+  </si>
+  <si>
+    <t>87-101</t>
+  </si>
+  <si>
+    <t>Le résultat attendu est d'avoir le nombre correct d'articles affichés dans l'icône du panier et le marqueur ajouté lorsqu'un nouvel article est ajouté au panier.</t>
+  </si>
+  <si>
+    <t>nous pourrions simuler l'ajout de certains produits au panier, puis appeler la fonction pour voir si elle calcule et affiche correctement la quantité totale d'articles dans le panier. Vous pouvez également vérifier manuellement la valeur affichée par rapport à la valeur attendue, en fonction du nombre d'articles ajoutés au panier</t>
+  </si>
+  <si>
+    <t>Si cette propriété n'est pas une représentation sous forme de chaîne d'un nombre valide, parseInt renverra NaN, ce qui peut entraîner un comportement inattendu dans le calcul du nombre.</t>
+  </si>
+  <si>
+    <t>il doit écouter l'événement de changement sur tous les champs d'entrée avec la classe .itemQuantity et mettre à jour la quantité de l'article correspondant dans le panier. Il doit également mettre à jour le stockage local et mettre à jour le nombre et le total du panier.</t>
+  </si>
+  <si>
+    <t>la fonction est asynchrone, il peut donc y avoir un délai avant que les données du produit ne soient disponibles</t>
+  </si>
+  <si>
+    <t>que l'article est supprimé avec succès du panier, le total du panier et le nombre d'articles sont mis à jour et, si nécessaire, un message indiquant que le panier est vide s'affiche.</t>
+  </si>
+  <si>
+    <t>vous pouvez tester manuellement la fonctionnalité en ajoutant des articles au panier, puis en les supprimant un par un à l'aide du bouton Supprimer.</t>
+  </si>
+  <si>
+    <t>Un problème potentiel avec cette fonction est qu'elle suppose que le tableau cartValue contiendra toujours des objets avec un identifiant et une propriété de couleur. Si les objets du tableau n'ont pas ces propriétés, la fonction peut ne pas se comporter comme prévu</t>
+  </si>
+  <si>
+    <t>calcul / TotalPrice</t>
+  </si>
+  <si>
+    <t>calcul / TotalItems</t>
+  </si>
+  <si>
+    <t>Add</t>
+  </si>
+  <si>
+    <t>33-123</t>
+  </si>
+  <si>
+    <t>lorsque le DOM est chargé, il fera une requête pour récupérer les données produit du serveur en utilisant la méthode fetch(). Si la demande aboutit (c'est-à-dire que le code de réponse est compris entre 200 et 299), les données du produit seront affichées sur la page avec un formulaire permettant à l'utilisateur de choisir une couleur et une quantité pour le produit. Lorsque l'utilisateur clique sur le bouton "Ajouter au panier", les détails du produit, y compris la couleur et la quantité choisies, seront ajoutés au panier stocké dans la mémoire locale du navigateur. Si la couleur ou la quantité choisie n'est pas valide (c'est-à-dire vide ou hors plage), un message d'erreur s'affichera. Si le produit est ajouté avec succès au panier, un message de réussite s'affichera et le nombre de paniers sera mis à jour.</t>
+  </si>
+  <si>
+    <t>Si le point de terminaison de l'API est en panne ou si le réseau est lent, les informations sur le produit peuvent ne pas être récupérées correctement. ou
+S'il y a un bogue dans la fonction addToCart, les articles peuvent ne pas être ajoutés correctement au panier ou le panier peut être corrompu.</t>
+  </si>
+  <si>
+    <t>js/formValidation.js</t>
+  </si>
+  <si>
+    <t>31-91</t>
+  </si>
+  <si>
+    <t>validateForm</t>
+  </si>
+  <si>
+    <t>le code doit valider le formulaire avant de le soumettre, en s'assurant que tous les champs obligatoires sont remplis et que les données saisies sont dans le bon format.</t>
+  </si>
+  <si>
+    <t>Ouvrez le fichier HTML dans un navigateur Web et remplissez le formulaire avec des données incorrectes, comme une adresse e-mail invalide ou un nom trop court. Vérifiez que les messages d'erreur apparaissent à côté des champs de saisie pertinents.</t>
+  </si>
+  <si>
+    <t>Les champs de saisie et les éléments de message d'erreur peuvent ne pas exister : si l'un des éléments interrogés n'existe pas dans le document HTML, le code JavaScript génère une erreur.</t>
+  </si>
+  <si>
+    <t>107-154</t>
+  </si>
+  <si>
+    <t>post</t>
+  </si>
+  <si>
+    <t>Il peut y avoir des erreurs réseau lors de l'envoi de la requête POST, entraînant l'échec de la requête. ou
+Le serveur peut ne pas traiter correctement la demande, ce qui entraîne des erreurs ou un comportement inattendu.</t>
+  </si>
+  <si>
+    <t>Si le formulaire est valide, la fonction "handleSubmit()" doit être appelée. Cette fonction doit créer un objet contenant les coordonnées de l'utilisateur et la liste des identifiants des produits dans le panier. Il doit ensuite envoyer une requête POST au point de terminaison API "/api/products/order" avec l'objet de la commande comme corps de la requête.</t>
+  </si>
+  <si>
+    <t>Vérifiez que la réponse de l'API contient les données attendues, y compris l'ID de commande. Et Assurez-vous que la page est redirigée vers la page de confirmation avec les paramètres de requête corrects.</t>
+  </si>
+  <si>
+    <t>Ajoutez quelques produits au panier. Modifier la quantité d'un produit dans le panier en changeant la valeur du champ de saisie quantité.</t>
+  </si>
+  <si>
+    <t>Chargez le fichier HTML dans un navigateur Web. et accédez à la page d'un seul produit en cliquant dessus et Vérifiez que l'image, le nom, le prix, la description et les options de couleur du produit s'affichent correctement sur la page Web.</t>
   </si>
 </sst>
 </file>
@@ -195,13 +195,6 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -225,6 +218,13 @@
     <font>
       <sz val="8"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -252,28 +252,30 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -497,21 +499,21 @@
   </sheetPr>
   <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView tabSelected="1" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.26953125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.08984375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.90625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="37.1796875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="61.90625" customWidth="1"/>
-    <col min="6" max="6" width="49.6328125" customWidth="1"/>
+    <col min="1" max="1" width="20.08984375" customWidth="1"/>
+    <col min="2" max="2" width="8.1796875" customWidth="1"/>
+    <col min="3" max="3" width="11.90625" customWidth="1"/>
+    <col min="4" max="4" width="54.81640625" customWidth="1"/>
+    <col min="5" max="5" width="52" customWidth="1"/>
+    <col min="6" max="6" width="53.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -539,210 +541,202 @@
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
     </row>
-    <row r="3" spans="1:7" s="4" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="8" t="s">
-        <v>33</v>
+    <row r="3" spans="1:7" s="4" customFormat="1" ht="63" x14ac:dyDescent="0.3">
+      <c r="A3" s="7" t="s">
+        <v>17</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>34</v>
+        <v>7</v>
       </c>
       <c r="C3" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="5"/>
+    </row>
+    <row r="4" spans="1:7" s="4" customFormat="1" ht="50.5" x14ac:dyDescent="0.3">
+      <c r="A4" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" s="5"/>
+    </row>
+    <row r="5" spans="1:7" ht="62.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="E3" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-    </row>
-    <row r="4" spans="1:7" s="4" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="8" t="s">
+      <c r="D5" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G5" s="6"/>
+    </row>
+    <row r="6" spans="1:7" ht="62.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="D6" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G6" s="6"/>
+    </row>
+    <row r="7" spans="1:7" ht="62.5" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G7" s="6"/>
+    </row>
+    <row r="8" spans="1:7" ht="62.5" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G8" s="6"/>
+    </row>
+    <row r="9" spans="1:7" ht="162.5" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C4" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="E4" s="8" t="s">
+      <c r="D9" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-    </row>
-    <row r="5" spans="1:7" ht="28" x14ac:dyDescent="0.3">
-      <c r="A5" s="8" t="s">
+      <c r="E9" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F9" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="G9" s="6"/>
+    </row>
+    <row r="10" spans="1:7" ht="62.5" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" s="8" t="s">
+      <c r="B10" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="E5" s="8" t="s">
+      <c r="C10" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="F5" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G5" s="6"/>
-    </row>
-    <row r="6" spans="1:7" s="7" customFormat="1" ht="41.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="B6" s="3" t="s">
+      <c r="D10" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G6" s="6"/>
-    </row>
-    <row r="7" spans="1:7" s="7" customFormat="1" ht="38" x14ac:dyDescent="0.3">
-      <c r="A7" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="B7" s="3" t="s">
+      <c r="E10" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="G10" s="6"/>
+    </row>
+    <row r="11" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A11" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="D11" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F11" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="D7" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="G7" s="6"/>
-    </row>
-    <row r="8" spans="1:7" ht="57.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G8" s="6"/>
-    </row>
-    <row r="9" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G9" s="6"/>
-    </row>
-    <row r="10" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G10" s="6"/>
-    </row>
-    <row r="11" spans="1:7" ht="44.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>28</v>
-      </c>
       <c r="G11" s="6"/>
     </row>
-    <row r="12" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>28</v>
-      </c>
+    <row r="12" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="7"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
       <c r="G12" s="6"/>
     </row>
     <row r="13" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
@@ -772,7 +766,7 @@
     <row r="22" ht="12.5" x14ac:dyDescent="0.25"/>
     <row r="23" ht="12.5" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
